--- a/src/test/java/com/example/easyexcel/xlsx/ExcelPO.xlsx
+++ b/src/test/java/com/example/easyexcel/xlsx/ExcelPO.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="写入方法一" r:id="rId3" sheetId="1"/>
+    <sheet name="写入方法二" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -99,242 +99,182 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>R3编码</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R3名称</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用户名</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>只为加一列</t>
+          <t>birthday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8.0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13</t>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>2021-01-14 16:25:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-01-14 16:25:50</t>
         </is>
       </c>
     </row>

--- a/src/test/java/com/example/easyexcel/xlsx/ExcelPO.xlsx
+++ b/src/test/java/com/example/easyexcel/xlsx/ExcelPO.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="写入方法二" r:id="rId3" sheetId="1"/>
+    <sheet name="写入方法一" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -99,186 +99,261 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>主标题</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>主标题</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>birthday</t>
+          <t>主标题</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2021-01-14 16:25:50</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>字符串标题</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>日期标题</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>数字标题</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3.0</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.0</v>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.0</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.0</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.0</v>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8.0</v>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9.0</v>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.0</v>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-01-14 16:25:50</t>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>